--- a/medicine/Enfance/Paul_Durand_(illustrateur)/Paul_Durand_(illustrateur).xlsx
+++ b/medicine/Enfance/Paul_Durand_(illustrateur)/Paul_Durand_(illustrateur).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Paul Durand est un dessinateur, illustrateur et peintre français né sur l'île de Bréhat (Côtes-d'Armor, Bretagne) le 20 janvier 1925 et mort à Guerville  (Yvelines) le 30 juin 1977.
 Il est particulièrement connu pour ses nombreuses illustrations des Bibliothèques verte et rose (éditions Hachette) et ses couvertures pour les éditions J'ai lu. Il a également collaboré à de très nombreux journaux et magazines parmi lesquels Jours de France, Le Figaro littéraire, Paris-Presse, Le Pèlerin, Lectures pour tous et Télé 7 jours.
@@ -512,11 +524,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Après des études secondaires à Paris, Paul Durand réalise ses premiers dessins dès 1946 pour Les Veillées des chaumières, Femina, La Femme chic, ainsi que de nombreuses affiches publicitaires parmi lesquelles La Dauphine de Renault et le catalogue du constructeur (1955-56).
 Il illustre des nouvelles pour Paris-Presse, Marie France, Francs Jeux. La photographie remplaçant petit à petit les dessins dans les journaux, il se tourne vers la littérature enfantine. Il est vite remarqué et publié par les grands éditeurs.
-À partir de 1951, il illustre pour les éditions Hachette de nombreux ouvrages dans les collections[1] :
+À partir de 1951, il illustre pour les éditions Hachette de nombreux ouvrages dans les collections :
 Bibliothèque de la jeunesse : Seul à travers l'Atlantique, Mer Baltique, etc. ;
 Bibliothèque verte : La Mare au diable, Pêcheur d'Islande, Seul à travers l'Atlantique, L'Escadron blanc, L'Affaire Caïus, etc. ;
 Bibliothèque rose : Diloy le chemineau, Le Mauvais Génie, Le Club des Cinq va camper, etc. ;
@@ -556,17 +570,123 @@
           <t>Œuvre</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Note : Les ouvrages sont classés par éditeur, collection et date de parution.
-Éditions de l'Amitié
-1965 : Le Cavalier de l'infortune de René Guillot
-1966 : L'Extraordinaire Aventure de Michel Santanrea de René Guillot
-Éditions Belin
-1965-1969 : Grammaire fonctionnelle CE1 de René Vaillot ; CE1-2, CE2, CM1-2, CM2 de R. Vaillot et R. Maître
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Note : Les ouvrages sont classés par éditeur, collection et date de parution.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Paul_Durand_(illustrateur)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Paul_Durand_(illustrateur)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Éditions de l'Amitié</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1965 : Le Cavalier de l'infortune de René Guillot
+1966 : L'Extraordinaire Aventure de Michel Santanrea de René Guillot</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Paul_Durand_(illustrateur)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Paul_Durand_(illustrateur)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Éditions Belin</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>1965-1969 : Grammaire fonctionnelle CE1 de René Vaillot ; CE1-2, CE2, CM1-2, CM2 de R. Vaillot et R. Maître
 1966-1968 : Les Rêves et la Vie, CE1-2, CM1-2, CM2 de M. Payre
-1967 : La Vellorita, 4e de Maurice Lacoste et Louis Urrutia
-Éditions Delagrave
+1967 : La Vellorita, 4e de Maurice Lacoste et Louis Urrutia</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Paul_Durand_(illustrateur)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Paul_Durand_(illustrateur)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Éditions Delagrave</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Aventures et Jeunesse
 1950 : La Brousse et la Bête de René Guillot
 1956 : Les Éléphants de Sargabal de René Guillot
@@ -598,16 +718,86 @@
 Mouette
 1961 : Le Petit Lord de Frances Hodgson Burnett
 1968 : La Petite Infante de René Guillot
-Éditions Denoël
-Couvertures
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Paul_Durand_(illustrateur)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Paul_Durand_(illustrateur)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Éditions Denoël</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Couvertures
 1970 : Le Cycle de Torrents de Marie-Anne Desmarest
 La Jeunesse de Jan Yvarsen
 Jan Yvarsen
 Le Fils de Jan
 Le Dernier Amour de Jan
 La Maison de Tante Brita
-Rholf Harald
-Éditions Deux coqs d'or
+Rholf Harald</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Paul_Durand_(illustrateur)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Paul_Durand_(illustrateur)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Éditions Deux coqs d'or</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Collection Les Beaux Livres d'or :
 La Flèche d'or :
 1969 : La Belle au bois dormant de Charles Perrault
@@ -625,8 +815,8 @@
 1970 : Les Trois Mousquetaires d'Alexandre Dumas
 1970 : Le Troubadour de Hautefort de Germaine de Bournazel
 1971 : Les Mystères de l'étang et de la mer d'Anne-Marie Dalmais
-1971 : Contes de Perrault, 2 volumes[2].  (ISBN 2-7192-1357-8)
-1972 : Contes de Andersen[3]
+1971 : Contes de Perrault, 2 volumes.  (ISBN 2-7192-1357-8)
+1972 : Contes de Andersen
 1973 : Des fées, des sorcières, des lutins… et le chat ! de Janet Deering
 1974 : Witches, Ghosts and Globlins de Ruthanna Long
 1975 : L'Autoroute et les Animaux du petit bois d'Anne-Marie Dalmais
@@ -696,18 +886,87 @@
 1974 : Barbe-Bleue d'après Charles Perrault, avec Daniel Ivernel
 Les Plus Belles Histoires de…
 1982 : Les Plus Belles Histoires de Petit Lapin d'Anne-Marie Dalmais  (ISBN 2-7192-0362-9)
-Éditions Flammarion
-1962 : Le Grand Meaulnes d'Alain-Fournier
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Paul_Durand_(illustrateur)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Paul_Durand_(illustrateur)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Éditions Flammarion</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>1962 : Le Grand Meaulnes d'Alain-Fournier
 1964 : Rroû de Maurice Genevoix (couverture)
-1971 : Vendredi ou la Vie sauvage de Michel Tournier[4] ; rééd. en poche en 2011 chez Flammarion Jeunesse
+1971 : Vendredi ou la Vie sauvage de Michel Tournier ; rééd. en poche en 2011 chez Flammarion Jeunesse
 Albums
 1969 : Le Train du Père Noël de Guy des Cars
 Collection Flammarion jeunesse
 1964 : Les Aventures de cinq amis et du chien Tom de Renée Reggiani
 Collection du chat perché
-1977 : Mon livre de cuisine de Ginette Mathiot
-Éditions Gautier-Languereau
-Nouvelle Bibliothèque de Suzette
+1977 : Mon livre de cuisine de Ginette Mathiot</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Paul_Durand_(illustrateur)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Paul_Durand_(illustrateur)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Éditions Gautier-Languereau</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nouvelle Bibliothèque de Suzette
 1959 : La Rue de la Pie qui chante de Marcelle Vérité
 1960 : Babette et le Roi-Soleil de Diélette
 1960 : La Princesse aux yeux verts de Line Droze
@@ -761,7 +1020,43 @@
 1957 : Mamie-Soleil de Berthe Bernage. Gautier-Languereau
 Collection Jean-François (en association avec les éditions Fleurus)
 1955 : H.U.1 à Port-Goulphare de Jacques Mipe
-Éditions G. P.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Paul_Durand_(illustrateur)</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Paul_Durand_(illustrateur)</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Éditions G. P.</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Bibliothèque Rouge et Or
 1957 : Le Château d'algues de Saint-Marcoux
 1959 : La Calèche du bonheur de Michèle Arneguy
@@ -806,7 +1101,43 @@
 Le Marteau de Thor
 Le Chaudron d'or
 Le Voleur de feu
-Éditions Hachette
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Paul_Durand_(illustrateur)</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Paul_Durand_(illustrateur)</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Éditions Hachette</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 1954 : Encyclopédie pour les enfants de France sous la direction de Marcelin Traverse (ill. de Marianne Clouzot, Albert Chazelle, Paul Durand, Henri Mercier, Jacques Pecnard, Pierre Probst, Jean Reschofsky et Romain Simon).
 Collection « Les Albums roses »
 1962 : L'Île au père Noël de Gilles Saint-Cérère
@@ -944,7 +1275,43 @@
 Les Quatre Rois
 Livre-jeu
 1961 : Sissi impératrice d'Odette Ferry
-Éditions J'ai lu (1968-1977)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Paul_Durand_(illustrateur)</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Paul_Durand_(illustrateur)</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Éditions J'ai lu (1968-1977)</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Le Petit Monde de don Camillo de Giovanni Guareschi (no 1)
 Le Blé en herbe de Colette (no 2)
 La Neige en deuil de Henri Troyat (no 10)
@@ -1064,7 +1431,7 @@
 Don Camillo et les Contestataires de Giovanni Guareschi (no 561)
 Un pas vers la mer de Max Gallo (no 564)
 Une sentinelle attend l'aurore de Gilbert Cesbron (no 565)
-La Fille de Fanny Hill[5] (no 571)
+La Fille de Fanny Hill (no 571)
 L'Histoire de France racontée à Juliette de Jean Duché (nos 572-573, 2 tomes)
 Le Souffle de la guerre - Nathalie de Herman Wouk (no 575)
 Le Souffle de la guerre - Pamela de Herman Wouk (no 576)
@@ -1102,35 +1469,240 @@
 Les Étangs de Hollande de Dominique Saint-Alban (no 749)
 L'Année du crabe d'Olivier Todd (no 757)
 Le Moscovite d'Henri Troyat (nos 762-764, 3 tomes)
-Éditions Larousse
-1961 : Mon premier atlas de René Guillot
-Éditions Librairie académique Perrin
-Couvertures
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Paul_Durand_(illustrateur)</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Paul_Durand_(illustrateur)</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Éditions Larousse</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>1961 : Mon premier atlas de René Guillot</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Paul_Durand_(illustrateur)</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Paul_Durand_(illustrateur)</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Éditions Librairie académique Perrin</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Couvertures
 1961 : Saint François d'Assise de Johannes Joergensen
 1961 : Le Charretier de la mort de Selma Lagerlöf
 1961 : Le Labyrinthe d'Edouard Estourie
-1961 : Le Livre des légendes de Selma Lagerlöf
-Éditions Magnard
-Collection Fantasia
-1955 : Kpo la panthère de René Guillot
-Éditions Nathan
-Contes et légendes de France de Jean Portail
+1961 : Le Livre des légendes de Selma Lagerlöf</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Paul_Durand_(illustrateur)</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Paul_Durand_(illustrateur)</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Éditions Magnard</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Collection Fantasia
+1955 : Kpo la panthère de René Guillot</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Paul_Durand_(illustrateur)</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Paul_Durand_(illustrateur)</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Éditions Nathan</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Contes et légendes de France de Jean Portail
 Albums
 1968 : La Biche blonde et le Grand Lion de Micheline Sandrel
 1970 : La Chouette qui voulait voir le jour de Micheline Sandrel
 1971 : Le Beau Jeune Homme et l'Écureuil de Micheline Sandrel
 1972 : Il était une fois un tigre de Micheline Sandrel
 1974 : Le Flamand rose et l'Oiseau très sage de Micheline Sandrel
-1973 : Un caniche nommé Volubilis de Micheline Sandrel
-Éditions Odege
-1967 : Cinq Galops de chevaux de René Guillot
+1973 : Un caniche nommé Volubilis de Micheline Sandrel</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Paul_Durand_(illustrateur)</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Paul_Durand_(illustrateur)</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Éditions Odege</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>1967 : Cinq Galops de chevaux de René Guillot
 1967 : Cœurs Sauvages, cœurs de bêtes de René Guillot
 1968 : Cinq Colères de fauves de René Guillot
 1970 : Cinq Tours de magiciens de René Guillot
 1971 : Histoires du gaillard d'avant de Jean Ollivier
-1972 : Histoires de la lande et de la brume de Jean Ollivier
-Éditions Presses de la Cité
-Couvertures
+1972 : Histoires de la lande et de la brume de Jean Ollivier</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Paul_Durand_(illustrateur)</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Paul_Durand_(illustrateur)</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Éditions Presses de la Cité</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Couvertures
 1957 : Caroline chérie de Cecil Saint Laurent
 1958 : Napoléon et Juan de Cecil Saint Laurent
 1958 : Le Roman de Renard de Maurice Genevoix
@@ -1149,17 +1721,119 @@
 1958 : Babet de Picardie de Pierre Mac Orlan
 1958 : Le Chemin d'ailleurs de Marie Moran
 1959 : Les Naufragés de Paris de Gérard Blond
-1959 : La Septième Porte de Daniel Gray
-Éditions Sélection du Reader's Digest
-1959-1961 : Album des jeunes 1960-1961-1962
-1960 : Le Lion de Joseph Kessel
-Éditions Tallandier
-Collection Arc en Ciel (couvertures)
+1959 : La Septième Porte de Daniel Gray</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Paul_Durand_(illustrateur)</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Paul_Durand_(illustrateur)</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Éditions Sélection du Reader's Digest</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>1959-1961 : Album des jeunes 1960-1961-1962
+1960 : Le Lion de Joseph Kessel</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Paul_Durand_(illustrateur)</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Paul_Durand_(illustrateur)</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Éditions Tallandier</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Collection Arc en Ciel (couvertures)
 1965 : L'Amour appelle l'amour de Claude Jaunière
 1965 : Cœurs, Volcans et Chrysanthèmes de Doris Faber
-1965 : La Princesse aux mains bleues de Jean d'Astor
-Club de Lecture des jeunes
-1959 : Annik Reporter de Mireille
+1965 : La Princesse aux mains bleues de Jean d'Astor</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Paul_Durand_(illustrateur)</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Paul_Durand_(illustrateur)</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Club de Lecture des jeunes</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>1959 : Annik Reporter de Mireille
 1960 : L'Appel de la forêt de Jack London
 1962 : Lassie, chien fidèle d'Eric Knight
 1962 : Trapu, Carca, Grisou et Cie de George C. Franklin
@@ -1170,25 +1844,161 @@
 1963 : Dix Histoires à quatre pattes de George C. Franklin
 1964 : La Fleur sacrée de H. Rider Haggard
 1965 : Bento Cheval sauvage de Dita Holesch
-1966 : Les Disparus de Saint-Agil de Pierre Véry
-Corsaire Éditions
-2018 : Message de Noël aux enfants de France de Charles de Gaulle
-Livres-disques Philips
-1967 : Histoire d'un casse-noisette d'après Piotr Ilitch Tchaïkovski
+1966 : Les Disparus de Saint-Agil de Pierre Véry</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Paul_Durand_(illustrateur)</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Paul_Durand_(illustrateur)</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Corsaire Éditions</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>2018 : Message de Noël aux enfants de France de Charles de Gaulle</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Paul_Durand_(illustrateur)</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Paul_Durand_(illustrateur)</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Livres-disques Philips</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>1967 : Histoire d'un casse-noisette d'après Piotr Ilitch Tchaïkovski
 1967 : Histoire de Coppelia d'après Piotr Ilitch Tchaïkovski
 1967 : Les Plus Jolies Chansons enfantines
 1967 : Bonne nuit les petits d'après Claude Laydu - ORTF
-1967 : Les Nouvelles Chansons de « Bonne nuit les petits » d'après Claude Laydu - ORTF
-Autres publications
-1961 : Mirages de Amédée Luret
+1967 : Les Nouvelles Chansons de « Bonne nuit les petits » d'après Claude Laydu - ORTF</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Paul_Durand_(illustrateur)</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Paul_Durand_(illustrateur)</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Autres publications</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>1961 : Mirages de Amédée Luret
 1963 : La Femme d'un roi de Jack London, éditions ODEJ (couverture)
 1963 : Vipère au poing d'Hervé Bazin, éditions Grasset (couverture)
 1962-1965 : Guide agricole Philips, tomes 4 à 7, collection Bibliothèque agricole Philips, éditions Brunétoile
 1964 : L'Encyclopédie médicale et familiale, éditions du Club familial (couverture)
 1966 : Chansons de Brousse de René Guillot, éditions H. Messeiller-Neuchâtel
-1976 : L'Histoire de Jean-François de Gaston Martineau, éditions Grancher
-Divers
-Assiettes de collection (1978 à 1981)
+1976 : L'Histoire de Jean-François de Gaston Martineau, éditions Grancher</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Paul_Durand_(illustrateur)</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Paul_Durand_(illustrateur)</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Divers</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Assiettes de collection (1978 à 1981)
 Les Enfants de Durand : Marie-Ange /  Émilie et Philippe / Christiane et Fifi / Cécile et Raoul
 Jeux
 1962 : Jeu de 7 familles : Histoire - éditions Catel et Farcy (réédité par France-Cartes)
@@ -1209,31 +2019,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Paul_Durand_(illustrateur)</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Paul_Durand_(illustrateur)</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Paul_Durand_(illustrateur)</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Paul_Durand_(illustrateur)</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr">
         <is>
           <t>Bibliothèque nationale de France (pour la liste des œuvres)</t>
         </is>
